--- a/exports/excel/jjones_cogo.xlsx
+++ b/exports/excel/jjones_cogo.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Calendar-Heatmap" sheetId="1" r:id="rId1"/>
     <sheet name="SUMMARY" sheetId="2" r:id="rId2"/>
     <sheet name="activity_hr" sheetId="3" r:id="rId3"/>
+    <sheet name="activity_dayofweek" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="53">
   <si>
     <t>2014-04-25</t>
   </si>
@@ -48,7 +49,13 @@
     <t>Total Places Added Per Day</t>
   </si>
   <si>
-    <t>Unique People Adding Places</t>
+    <t>Total People Adding Places</t>
+  </si>
+  <si>
+    <t>New Visitors Adding Places</t>
+  </si>
+  <si>
+    <t>Returning Visitors Adding Places</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio of (Unique People/Total Places).             Darker = more diversity in the activity. lighter = more single-person activity </t>
@@ -57,7 +64,13 @@
     <t>Total Interactions per day- support &amp; comments</t>
   </si>
   <si>
-    <t>Unique People Adding support &amp; comments</t>
+    <t>Total People Adding support &amp; comments</t>
+  </si>
+  <si>
+    <t>New Visitors adding support &amp; comments</t>
+  </si>
+  <si>
+    <t>Returning Visitors adding support &amp; comments</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio of (Unique Interactors/Total Interactions).             Darker = more diversity in the activity. lighter = more single-person activity </t>
@@ -67,6 +80,102 @@
   </si>
   <si>
     <t>Total comments per Day</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>places</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>supports</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Tues</t>
+  </si>
+  <si>
+    <t>Adding Places</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
 </sst>
 </file>
@@ -158,6 +267,1247 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0">
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Map Activity by Hour of Day</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>places added</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>activity_hr!A2:A25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_hr!B2:B25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>comments</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>activity_hr!A2:A25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_hr!C2:C25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>supports</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>activity_hr!A2:A25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_hr!D2:D25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>other</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>activity_hr!A2:A25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_hr!E2:E25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr baseline="0">
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Map Activity by Day of Week</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>activity_dayofweek!A2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adding Places</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>activity_dayofweek!B1:H1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tues</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_dayofweek!B2:H2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>activity_dayofweek!A3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>activity_dayofweek!B1:H1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tues</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_dayofweek!B3:H3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>activity_dayofweek!A4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>activity_dayofweek!B1:H1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tues</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_dayofweek!B4:H4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>activity_dayofweek!A5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>comments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>activity_dayofweek!B1:H1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tues</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>activity_dayofweek!B5:H5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,7 +1795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -453,6 +1803,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
@@ -967,26 +2320,44 @@
         <v>1</v>
       </c>
       <c r="E23" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
-        <v>0.333333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
       <c r="E24" s="4">
-        <v>0.428571428571429</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0.333333333333333</v>
+        <v>11</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
       </c>
+      <c r="L24" s="4">
+        <v>1</v>
+      </c>
       <c r="N24" s="4">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+      <c r="S24" s="4">
         <v>1</v>
       </c>
     </row>
@@ -995,22 +2366,28 @@
         <v>3</v>
       </c>
       <c r="C25" s="4">
-        <v>0.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="D25" s="4">
-        <v>0.315789473684211</v>
+        <v>11</v>
       </c>
       <c r="E25" s="4">
-        <v>0.375</v>
+        <v>4</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
       </c>
       <c r="H25" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M25" s="4">
         <v>1</v>
       </c>
+      <c r="O25" s="4">
+        <v>1</v>
+      </c>
       <c r="Q25" s="4">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="S25" s="4">
         <v>1</v>
@@ -1021,24 +2398,21 @@
         <v>4</v>
       </c>
       <c r="D26" s="4">
-        <v>0.428571428571429</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4">
-        <v>0.375</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="4">
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.5</v>
+      <c r="H27" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
@@ -1046,16 +2420,22 @@
         <v>6</v>
       </c>
       <c r="B28" s="4">
-        <v>0.0333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C28" s="4">
-        <v>0.0333333333333333</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1</v>
       </c>
       <c r="S28" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
@@ -1063,10 +2443,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="4">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="M29" s="4">
-        <v>0.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -1133,291 +2510,132 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="4">
-        <v>21</v>
-      </c>
-      <c r="F33" s="4">
-        <v>49</v>
-      </c>
-      <c r="H33" s="4">
-        <v>16</v>
-      </c>
-      <c r="J33" s="4">
-        <v>17</v>
-      </c>
-      <c r="M33" s="4">
-        <v>12</v>
-      </c>
-      <c r="N33" s="4">
-        <v>18</v>
-      </c>
-      <c r="O33" s="4">
-        <v>3</v>
-      </c>
-      <c r="P33" s="4">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="34" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="4">
-        <v>270</v>
+        <v>1</v>
       </c>
       <c r="F34" s="4">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G34" s="4">
-        <v>21</v>
-      </c>
-      <c r="H34" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I34" s="4">
         <v>1</v>
       </c>
-      <c r="L34" s="4">
-        <v>7</v>
-      </c>
-      <c r="M34" s="4">
-        <v>7</v>
+      <c r="J34" s="4">
+        <v>1</v>
       </c>
       <c r="N34" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P34" s="4">
         <v>1</v>
       </c>
-      <c r="R34" s="4">
-        <v>19</v>
-      </c>
-      <c r="S34" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+    </row>
+    <row r="35" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E35" s="4">
-        <v>120</v>
-      </c>
-      <c r="F35" s="4">
-        <v>7</v>
-      </c>
-      <c r="G35" s="4">
-        <v>14</v>
-      </c>
-      <c r="H35" s="4">
-        <v>33</v>
-      </c>
-      <c r="J35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" s="4">
         <v>1</v>
       </c>
-      <c r="L35" s="4">
-        <v>8</v>
-      </c>
       <c r="M35" s="4">
-        <v>7</v>
-      </c>
-      <c r="N35" s="4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="4">
-        <v>6</v>
-      </c>
-      <c r="R35" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S35" s="4">
-        <v>15</v>
-      </c>
-      <c r="T35" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="4">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="E36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="4">
-        <v>22</v>
-      </c>
-      <c r="G36" s="4">
-        <v>10</v>
-      </c>
-      <c r="H36" s="4">
-        <v>13</v>
-      </c>
-      <c r="J36" s="4">
-        <v>5</v>
-      </c>
-      <c r="M36" s="4">
-        <v>16</v>
-      </c>
-      <c r="N36" s="4">
-        <v>1</v>
-      </c>
-      <c r="O36" s="4">
-        <v>8</v>
-      </c>
-      <c r="P36" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>19</v>
-      </c>
-      <c r="R36" s="4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="S36" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="4">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E37" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4">
-        <v>6</v>
-      </c>
-      <c r="G37" s="4">
-        <v>6</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4">
-        <v>6</v>
-      </c>
-      <c r="K37" s="4">
-        <v>3</v>
-      </c>
-      <c r="L37" s="4">
-        <v>4</v>
-      </c>
-      <c r="M37" s="4">
-        <v>8</v>
-      </c>
-      <c r="N37" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R37" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="4">
-        <v>7</v>
-      </c>
-      <c r="F38" s="4">
-        <v>5</v>
-      </c>
-      <c r="G38" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4">
-        <v>7</v>
-      </c>
-      <c r="J38" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4">
-        <v>2</v>
-      </c>
-      <c r="M38" s="4">
-        <v>1</v>
-      </c>
-      <c r="N38" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O38" s="4">
-        <v>5</v>
-      </c>
-      <c r="P38" s="4">
-        <v>7</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>10</v>
-      </c>
-      <c r="S38" s="4">
-        <v>12</v>
-      </c>
-      <c r="T38" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="4">
-        <v>90</v>
-      </c>
-      <c r="F39" s="4">
-        <v>2</v>
-      </c>
-      <c r="H39" s="4">
-        <v>18</v>
-      </c>
-      <c r="I39" s="4">
-        <v>5</v>
-      </c>
-      <c r="J39" s="4">
-        <v>10</v>
-      </c>
-      <c r="K39" s="4">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
       </c>
       <c r="M39" s="4">
-        <v>15</v>
-      </c>
-      <c r="O39" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>1</v>
-      </c>
-      <c r="R39" s="4">
-        <v>3</v>
-      </c>
-      <c r="U39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -1475,262 +2693,106 @@
       <c r="S40" s="3">
         <v>17</v>
       </c>
-      <c r="T40" s="3">
-        <v>18</v>
-      </c>
-      <c r="U40" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="43" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="4">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="F43" s="4">
-        <v>8</v>
-      </c>
-      <c r="H43" s="4">
-        <v>6</v>
-      </c>
-      <c r="J43" s="4">
-        <v>5</v>
-      </c>
-      <c r="M43" s="4">
-        <v>3</v>
-      </c>
-      <c r="N43" s="4">
-        <v>4</v>
-      </c>
-      <c r="O43" s="4">
-        <v>1</v>
-      </c>
-      <c r="P43" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="4">
-        <v>75</v>
-      </c>
-      <c r="F44" s="4">
-        <v>4</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="G44" s="4">
-        <v>3</v>
-      </c>
-      <c r="H44" s="4">
-        <v>4</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I44" s="4">
         <v>1</v>
       </c>
-      <c r="L44" s="4">
-        <v>3</v>
-      </c>
-      <c r="M44" s="4">
-        <v>2</v>
-      </c>
       <c r="N44" s="4">
-        <v>2</v>
-      </c>
-      <c r="P44" s="4">
-        <v>1</v>
-      </c>
-      <c r="R44" s="4">
-        <v>3</v>
-      </c>
-      <c r="S44" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C45" s="4">
+        <v>0.666666666666667</v>
+      </c>
       <c r="D45" s="4">
-        <v>9</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="E45" s="4">
-        <v>34</v>
-      </c>
-      <c r="F45" s="4">
-        <v>2</v>
-      </c>
-      <c r="G45" s="4">
-        <v>3</v>
+        <v>0.375</v>
       </c>
       <c r="H45" s="4">
-        <v>5</v>
-      </c>
-      <c r="J45" s="4">
-        <v>1</v>
-      </c>
-      <c r="K45" s="4">
-        <v>1</v>
-      </c>
-      <c r="L45" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M45" s="4">
-        <v>2</v>
-      </c>
-      <c r="N45" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="4">
-        <v>4</v>
-      </c>
-      <c r="R45" s="4">
-        <v>3</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S45" s="4">
-        <v>6</v>
-      </c>
-      <c r="T45" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="4">
-        <v>14</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F46" s="4">
-        <v>6</v>
-      </c>
-      <c r="G46" s="4">
-        <v>2</v>
-      </c>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="J46" s="4">
-        <v>1</v>
-      </c>
-      <c r="M46" s="4">
-        <v>4</v>
-      </c>
-      <c r="N46" s="4">
-        <v>1</v>
-      </c>
-      <c r="O46" s="4">
-        <v>2</v>
-      </c>
-      <c r="P46" s="4">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="Q46" s="4">
-        <v>2</v>
-      </c>
-      <c r="R46" s="4">
-        <v>3</v>
-      </c>
-      <c r="S46" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="4">
-        <v>7</v>
+        <v>0.25</v>
       </c>
       <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4">
-        <v>2</v>
-      </c>
-      <c r="G47" s="4">
-        <v>3</v>
-      </c>
-      <c r="H47" s="4">
-        <v>1</v>
-      </c>
-      <c r="I47" s="4">
-        <v>2</v>
-      </c>
-      <c r="K47" s="4">
-        <v>3</v>
-      </c>
-      <c r="L47" s="4">
-        <v>1</v>
-      </c>
-      <c r="M47" s="4">
-        <v>2</v>
-      </c>
-      <c r="N47" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>2</v>
-      </c>
-      <c r="R47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="4">
-        <v>4</v>
-      </c>
-      <c r="F48" s="4">
-        <v>4</v>
-      </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4">
-        <v>3</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="4">
-        <v>2</v>
-      </c>
-      <c r="M48" s="4">
-        <v>1</v>
-      </c>
-      <c r="N48" s="4">
-        <v>3</v>
+      <c r="B48" s="4">
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.0333333333333333</v>
       </c>
       <c r="O48" s="4">
-        <v>3</v>
-      </c>
-      <c r="P48" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="S48" s="4">
-        <v>4</v>
-      </c>
-      <c r="T48" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -1738,37 +2800,10 @@
         <v>7</v>
       </c>
       <c r="E49" s="4">
-        <v>18</v>
-      </c>
-      <c r="F49" s="4">
-        <v>2</v>
-      </c>
-      <c r="H49" s="4">
-        <v>1</v>
-      </c>
-      <c r="I49" s="4">
-        <v>1</v>
-      </c>
-      <c r="J49" s="4">
-        <v>1</v>
-      </c>
-      <c r="K49" s="4">
-        <v>1</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="M49" s="4">
-        <v>4</v>
-      </c>
-      <c r="O49" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>1</v>
-      </c>
-      <c r="R49" s="4">
-        <v>1</v>
-      </c>
-      <c r="U49" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -1829,12 +2864,6 @@
       <c r="S50" s="3">
         <v>17</v>
       </c>
-      <c r="T50" s="3">
-        <v>18</v>
-      </c>
-      <c r="U50" s="3">
-        <v>19</v>
-      </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="1" t="s">
@@ -1846,28 +2875,34 @@
         <v>1</v>
       </c>
       <c r="E53" s="4">
-        <v>0.285714285714286</v>
+        <v>21</v>
       </c>
       <c r="F53" s="4">
-        <v>0.163265306122449</v>
+        <v>49</v>
       </c>
       <c r="H53" s="4">
-        <v>0.375</v>
+        <v>16</v>
       </c>
       <c r="J53" s="4">
-        <v>0.294117647058824</v>
+        <v>17</v>
       </c>
       <c r="M53" s="4">
-        <v>0.25</v>
+        <v>12</v>
       </c>
       <c r="N53" s="4">
-        <v>0.222222222222222</v>
+        <v>18</v>
       </c>
       <c r="O53" s="4">
-        <v>0.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="P53" s="4">
-        <v>0.166666666666667</v>
+        <v>18</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>1</v>
+      </c>
+      <c r="U53" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -1875,31 +2910,37 @@
         <v>2</v>
       </c>
       <c r="E54" s="4">
-        <v>0.277777777777778</v>
+        <v>270</v>
       </c>
       <c r="F54" s="4">
-        <v>0.0888888888888889</v>
+        <v>45</v>
       </c>
       <c r="G54" s="4">
-        <v>0.142857142857143</v>
+        <v>21</v>
       </c>
       <c r="H54" s="4">
-        <v>0.8</v>
+        <v>5</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1</v>
       </c>
       <c r="L54" s="4">
-        <v>0.428571428571429</v>
+        <v>7</v>
       </c>
       <c r="M54" s="4">
-        <v>0.285714285714286</v>
+        <v>7</v>
       </c>
       <c r="N54" s="4">
-        <v>0.666666666666667</v>
+        <v>3</v>
+      </c>
+      <c r="P54" s="4">
+        <v>1</v>
       </c>
       <c r="R54" s="4">
-        <v>0.157894736842105</v>
+        <v>19</v>
       </c>
       <c r="S54" s="4">
-        <v>0.333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -1907,40 +2948,49 @@
         <v>3</v>
       </c>
       <c r="D55" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E55" s="4">
-        <v>0.283333333333333</v>
+        <v>120</v>
       </c>
       <c r="F55" s="4">
-        <v>0.285714285714286</v>
+        <v>7</v>
       </c>
       <c r="G55" s="4">
-        <v>0.214285714285714</v>
+        <v>14</v>
       </c>
       <c r="H55" s="4">
-        <v>0.151515151515152</v>
+        <v>33</v>
+      </c>
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="4">
+        <v>1</v>
       </c>
       <c r="L55" s="4">
-        <v>0.125</v>
+        <v>8</v>
       </c>
       <c r="M55" s="4">
-        <v>0.285714285714286</v>
+        <v>7</v>
       </c>
       <c r="N55" s="4">
-        <v>0.153846153846154</v>
+        <v>13</v>
       </c>
       <c r="Q55" s="4">
-        <v>0.666666666666667</v>
+        <v>6</v>
       </c>
       <c r="R55" s="4">
-        <v>0.333333333333333</v>
+        <v>9</v>
       </c>
       <c r="S55" s="4">
-        <v>0.4</v>
+        <v>15</v>
       </c>
       <c r="T55" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="U55" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -1948,40 +2998,46 @@
         <v>4</v>
       </c>
       <c r="D56" s="4">
-        <v>0.25</v>
+        <v>56</v>
       </c>
       <c r="E56" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F56" s="4">
-        <v>0.272727272727273</v>
+        <v>22</v>
       </c>
       <c r="G56" s="4">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="H56" s="4">
-        <v>0.0769230769230769</v>
+        <v>13</v>
       </c>
       <c r="J56" s="4">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="M56" s="4">
-        <v>0.25</v>
+        <v>16</v>
+      </c>
+      <c r="N56" s="4">
+        <v>1</v>
       </c>
       <c r="O56" s="4">
-        <v>0.25</v>
+        <v>8</v>
       </c>
       <c r="P56" s="4">
-        <v>0.125</v>
+        <v>8</v>
       </c>
       <c r="Q56" s="4">
-        <v>0.105263157894737</v>
+        <v>19</v>
       </c>
       <c r="R56" s="4">
-        <v>0.214285714285714</v>
+        <v>14</v>
       </c>
       <c r="S56" s="4">
-        <v>0.285714285714286</v>
+        <v>7</v>
+      </c>
+      <c r="U56" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -1989,37 +3045,43 @@
         <v>5</v>
       </c>
       <c r="D57" s="4">
-        <v>0.368421052631579</v>
+        <v>19</v>
       </c>
       <c r="E57" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F57" s="4">
-        <v>0.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="G57" s="4">
-        <v>0.5</v>
+        <v>6</v>
+      </c>
+      <c r="H57" s="4">
+        <v>1</v>
       </c>
       <c r="I57" s="4">
-        <v>0.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="K57" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L57" s="4">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="M57" s="4">
-        <v>0.25</v>
+        <v>8</v>
       </c>
       <c r="N57" s="4">
-        <v>0.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="Q57" s="4">
-        <v>0.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="R57" s="4">
-        <v>0.2</v>
+        <v>5</v>
+      </c>
+      <c r="U57" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -2027,40 +3089,43 @@
         <v>6</v>
       </c>
       <c r="E58" s="4">
-        <v>0.571428571428571</v>
+        <v>7</v>
       </c>
       <c r="F58" s="4">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="G58" s="4">
-        <v>0.05</v>
+        <v>20</v>
       </c>
       <c r="H58" s="4">
-        <v>0.428571428571429</v>
+        <v>7</v>
       </c>
       <c r="J58" s="4">
-        <v>0.166666666666667</v>
+        <v>6</v>
       </c>
       <c r="K58" s="4">
+        <v>2</v>
+      </c>
+      <c r="M58" s="4">
         <v>1</v>
       </c>
       <c r="N58" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O58" s="4">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="P58" s="4">
-        <v>0.142857142857143</v>
+        <v>7</v>
       </c>
       <c r="Q58" s="4">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="S58" s="4">
-        <v>0.333333333333333</v>
+        <v>12</v>
       </c>
       <c r="T58" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -2068,28 +3133,37 @@
         <v>7</v>
       </c>
       <c r="E59" s="4">
-        <v>0.2</v>
+        <v>90</v>
       </c>
       <c r="F59" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="4">
-        <v>0.0555555555555556</v>
+        <v>18</v>
       </c>
       <c r="I59" s="4">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="J59" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="K59" s="4">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="M59" s="4">
-        <v>0.266666666666667</v>
+        <v>15</v>
+      </c>
+      <c r="O59" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>1</v>
       </c>
       <c r="R59" s="4">
-        <v>0.333333333333333</v>
+        <v>3</v>
+      </c>
+      <c r="U59" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -2153,6 +3227,9 @@
       <c r="T60" s="3">
         <v>18</v>
       </c>
+      <c r="U60" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="1" t="s">
@@ -2164,30 +3241,33 @@
         <v>1</v>
       </c>
       <c r="E63" s="4">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F63" s="4">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="H63" s="4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J63" s="4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M63" s="4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N63" s="4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="O63" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P63" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q63" s="4">
+        <v>1</v>
+      </c>
+      <c r="U63" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2196,31 +3276,37 @@
         <v>2</v>
       </c>
       <c r="E64" s="4">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="F64" s="4">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G64" s="4">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H64" s="4">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1</v>
       </c>
       <c r="L64" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M64" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N64" s="4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P64" s="4">
+        <v>1</v>
       </c>
       <c r="R64" s="4">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="S64" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -2228,20 +3314,20 @@
         <v>3</v>
       </c>
       <c r="D65" s="4">
+        <v>9</v>
+      </c>
+      <c r="E65" s="4">
+        <v>34</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" s="4">
+        <v>3</v>
+      </c>
+      <c r="H65" s="4">
         <v>5</v>
       </c>
-      <c r="E65" s="4">
-        <v>103</v>
-      </c>
-      <c r="F65" s="4">
-        <v>7</v>
-      </c>
-      <c r="G65" s="4">
-        <v>13</v>
-      </c>
-      <c r="H65" s="4">
-        <v>32</v>
-      </c>
       <c r="J65" s="4">
         <v>1</v>
       </c>
@@ -2249,24 +3335,27 @@
         <v>1</v>
       </c>
       <c r="L65" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M65" s="4">
+        <v>2</v>
+      </c>
+      <c r="N65" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="4">
         <v>4</v>
       </c>
-      <c r="N65" s="4">
-        <v>13</v>
-      </c>
-      <c r="Q65" s="4">
-        <v>3</v>
-      </c>
       <c r="R65" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S65" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T65" s="4">
+        <v>2</v>
+      </c>
+      <c r="U65" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2275,40 +3364,46 @@
         <v>4</v>
       </c>
       <c r="D66" s="4">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E66" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G66" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H66" s="4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J66" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M66" s="4">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="N66" s="4">
+        <v>1</v>
       </c>
       <c r="O66" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P66" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="R66" s="4">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S66" s="4">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="U66" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -2316,37 +3411,43 @@
         <v>5</v>
       </c>
       <c r="D67" s="4">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E67" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G67" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H67" s="4">
         <v>1</v>
       </c>
       <c r="I67" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K67" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L67" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M67" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N67" s="4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>2</v>
       </c>
       <c r="R67" s="4">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="U67" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -2357,37 +3458,40 @@
         <v>4</v>
       </c>
       <c r="F68" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G68" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J68" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K68" s="4">
+        <v>2</v>
+      </c>
+      <c r="M68" s="4">
         <v>1</v>
       </c>
       <c r="N68" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O68" s="4">
         <v>3</v>
       </c>
       <c r="P68" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S68" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T68" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -2395,25 +3499,25 @@
         <v>7</v>
       </c>
       <c r="E69" s="4">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="F69" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" s="4">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I69" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J69" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K69" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M69" s="4">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O69" s="4">
         <v>1</v>
@@ -2422,7 +3526,10 @@
         <v>1</v>
       </c>
       <c r="R69" s="4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="U69" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -2486,6 +3593,9 @@
       <c r="T70" s="3">
         <v>18</v>
       </c>
+      <c r="U70" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="1" t="s">
@@ -2496,20 +3606,32 @@
       <c r="A73" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="E73" s="4">
+        <v>5</v>
+      </c>
       <c r="F73" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H73" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J73" s="4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="M73" s="4">
+        <v>3</v>
       </c>
       <c r="N73" s="4">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="O73" s="4">
+        <v>1</v>
       </c>
       <c r="P73" s="4">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -2517,25 +3639,31 @@
         <v>2</v>
       </c>
       <c r="E74" s="4">
-        <v>44</v>
+        <v>74</v>
+      </c>
+      <c r="F74" s="4">
+        <v>4</v>
       </c>
       <c r="G74" s="4">
         <v>2</v>
       </c>
       <c r="H74" s="4">
-        <v>3</v>
-      </c>
-      <c r="I74" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L74" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M74" s="4">
-        <v>1</v>
-      </c>
-      <c r="P74" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="N74" s="4">
+        <v>2</v>
+      </c>
+      <c r="R74" s="4">
+        <v>3</v>
+      </c>
+      <c r="S74" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -2543,30 +3671,48 @@
         <v>3</v>
       </c>
       <c r="D75" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E75" s="4">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
       </c>
       <c r="G75" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="4">
+        <v>5</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1</v>
+      </c>
+      <c r="L75" s="4">
         <v>1</v>
       </c>
       <c r="M75" s="4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="N75" s="4">
+        <v>2</v>
       </c>
       <c r="Q75" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R75" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S75" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T75" s="4">
+        <v>1</v>
+      </c>
+      <c r="U75" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2575,18 +3721,42 @@
         <v>4</v>
       </c>
       <c r="D76" s="4">
+        <v>14</v>
+      </c>
+      <c r="E76" s="4">
         <v>1</v>
       </c>
       <c r="F76" s="4">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="G76" s="4">
+        <v>2</v>
+      </c>
+      <c r="H76" s="4">
+        <v>1</v>
+      </c>
+      <c r="J76" s="4">
+        <v>1</v>
       </c>
       <c r="M76" s="4">
-        <v>3</v>
-      </c>
-      <c r="N76" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O76" s="4">
+        <v>2</v>
+      </c>
+      <c r="P76" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>2</v>
+      </c>
+      <c r="R76" s="4">
+        <v>3</v>
+      </c>
+      <c r="S76" s="4">
+        <v>2</v>
+      </c>
+      <c r="U76" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2595,16 +3765,40 @@
         <v>5</v>
       </c>
       <c r="D77" s="4">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F77" s="4">
+        <v>2</v>
+      </c>
+      <c r="G77" s="4">
+        <v>3</v>
+      </c>
+      <c r="H77" s="4">
+        <v>1</v>
       </c>
       <c r="I77" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+      <c r="M77" s="4">
+        <v>2</v>
+      </c>
+      <c r="N77" s="4">
+        <v>2</v>
       </c>
       <c r="Q77" s="4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="R77" s="4">
+        <v>1</v>
+      </c>
+      <c r="U77" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
@@ -2612,25 +3806,40 @@
         <v>6</v>
       </c>
       <c r="E78" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" s="4">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4">
+        <v>3</v>
+      </c>
+      <c r="J78" s="4">
+        <v>1</v>
       </c>
       <c r="K78" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78" s="4">
         <v>1</v>
       </c>
       <c r="N78" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O78" s="4">
         <v>2</v>
       </c>
+      <c r="P78" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>2</v>
+      </c>
       <c r="S78" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T78" s="4">
         <v>2</v>
@@ -2641,15 +3850,33 @@
         <v>7</v>
       </c>
       <c r="E79" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F79" s="4">
+        <v>2</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1</v>
+      </c>
+      <c r="J79" s="4">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4">
         <v>1</v>
       </c>
       <c r="M79" s="4">
-        <v>2</v>
-      </c>
-      <c r="U79" s="4">
+        <v>3</v>
+      </c>
+      <c r="O79" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>1</v>
+      </c>
+      <c r="R79" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2718,7 +3945,1120 @@
         <v>19</v>
       </c>
     </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="U83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1</v>
+      </c>
+      <c r="L84" s="4">
+        <v>1</v>
+      </c>
+      <c r="P84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="4">
+        <v>2</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="M85" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>2</v>
+      </c>
+      <c r="T85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="N86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O88" s="4">
+        <v>1</v>
+      </c>
+      <c r="S88" s="4">
+        <v>1</v>
+      </c>
+      <c r="T88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M89" s="4">
+        <v>1</v>
+      </c>
+      <c r="U89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2</v>
+      </c>
+      <c r="E90" s="3">
+        <v>3</v>
+      </c>
+      <c r="F90" s="3">
+        <v>4</v>
+      </c>
+      <c r="G90" s="3">
+        <v>5</v>
+      </c>
+      <c r="H90" s="3">
+        <v>6</v>
+      </c>
+      <c r="I90" s="3">
+        <v>7</v>
+      </c>
+      <c r="J90" s="3">
+        <v>8</v>
+      </c>
+      <c r="K90" s="3">
+        <v>9</v>
+      </c>
+      <c r="L90" s="3">
+        <v>10</v>
+      </c>
+      <c r="M90" s="3">
+        <v>11</v>
+      </c>
+      <c r="N90" s="3">
+        <v>12</v>
+      </c>
+      <c r="O90" s="3">
+        <v>13</v>
+      </c>
+      <c r="P90" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>15</v>
+      </c>
+      <c r="R90" s="3">
+        <v>16</v>
+      </c>
+      <c r="S90" s="3">
+        <v>17</v>
+      </c>
+      <c r="T90" s="3">
+        <v>18</v>
+      </c>
+      <c r="U90" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0.294117647058824</v>
+      </c>
+      <c r="M93" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="N93" s="4">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="O93" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="P93" s="4">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="U93" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0.277777777777778</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0.0888888888888889</v>
+      </c>
+      <c r="G94" s="4">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L94" s="4">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="M94" s="4">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="N94" s="4">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="R94" s="4">
+        <v>0.157894736842105</v>
+      </c>
+      <c r="S94" s="4">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0.283333333333333</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0.151515151515152</v>
+      </c>
+      <c r="L95" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="M95" s="4">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="N95" s="4">
+        <v>0.153846153846154</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="R95" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="S95" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="T95" s="4">
+        <v>1</v>
+      </c>
+      <c r="U95" s="4">
+        <v>0.0588235294117647</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="G96" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0.0769230769230769</v>
+      </c>
+      <c r="J96" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M96" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="O96" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="P96" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>0.105263157894737</v>
+      </c>
+      <c r="R96" s="4">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="S96" s="4">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="U96" s="4">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.368421052631579</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G97" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K97" s="4">
+        <v>1</v>
+      </c>
+      <c r="L97" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="M97" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="N97" s="4">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="R97" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="U97" s="4">
+        <v>0.181818181818182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="4">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="F98" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="J98" s="4">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="K98" s="4">
+        <v>1</v>
+      </c>
+      <c r="N98" s="4">
+        <v>1</v>
+      </c>
+      <c r="O98" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="P98" s="4">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="S98" s="4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="T98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J99" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K99" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M99" s="4">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="R99" s="4">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
+      <c r="A100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>6</v>
+      </c>
+      <c r="I100" s="3">
+        <v>7</v>
+      </c>
+      <c r="J100" s="3">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
+        <v>9</v>
+      </c>
+      <c r="L100" s="3">
+        <v>10</v>
+      </c>
+      <c r="M100" s="3">
+        <v>11</v>
+      </c>
+      <c r="N100" s="3">
+        <v>12</v>
+      </c>
+      <c r="O100" s="3">
+        <v>13</v>
+      </c>
+      <c r="P100" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>15</v>
+      </c>
+      <c r="R100" s="3">
+        <v>16</v>
+      </c>
+      <c r="S100" s="3">
+        <v>17</v>
+      </c>
+      <c r="T100" s="3">
+        <v>18</v>
+      </c>
+      <c r="U100" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
+      <c r="A102" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="4">
+        <v>21</v>
+      </c>
+      <c r="F103" s="4">
+        <v>36</v>
+      </c>
+      <c r="H103" s="4">
+        <v>14</v>
+      </c>
+      <c r="J103" s="4">
+        <v>16</v>
+      </c>
+      <c r="M103" s="4">
+        <v>12</v>
+      </c>
+      <c r="N103" s="4">
+        <v>15</v>
+      </c>
+      <c r="O103" s="4">
+        <v>3</v>
+      </c>
+      <c r="P103" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="4">
+        <v>226</v>
+      </c>
+      <c r="F104" s="4">
+        <v>45</v>
+      </c>
+      <c r="G104" s="4">
+        <v>19</v>
+      </c>
+      <c r="H104" s="4">
+        <v>2</v>
+      </c>
+      <c r="L104" s="4">
+        <v>6</v>
+      </c>
+      <c r="M104" s="4">
+        <v>6</v>
+      </c>
+      <c r="N104" s="4">
+        <v>3</v>
+      </c>
+      <c r="R104" s="4">
+        <v>19</v>
+      </c>
+      <c r="S104" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="4">
+        <v>5</v>
+      </c>
+      <c r="E105" s="4">
+        <v>103</v>
+      </c>
+      <c r="F105" s="4">
+        <v>7</v>
+      </c>
+      <c r="G105" s="4">
+        <v>13</v>
+      </c>
+      <c r="H105" s="4">
+        <v>32</v>
+      </c>
+      <c r="J105" s="4">
+        <v>1</v>
+      </c>
+      <c r="K105" s="4">
+        <v>1</v>
+      </c>
+      <c r="L105" s="4">
+        <v>8</v>
+      </c>
+      <c r="M105" s="4">
+        <v>4</v>
+      </c>
+      <c r="N105" s="4">
+        <v>13</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>3</v>
+      </c>
+      <c r="R105" s="4">
+        <v>7</v>
+      </c>
+      <c r="S105" s="4">
+        <v>12</v>
+      </c>
+      <c r="T105" s="4">
+        <v>1</v>
+      </c>
+      <c r="U105" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="4">
+        <v>55</v>
+      </c>
+      <c r="E106" s="4">
+        <v>2</v>
+      </c>
+      <c r="F106" s="4">
+        <v>13</v>
+      </c>
+      <c r="G106" s="4">
+        <v>10</v>
+      </c>
+      <c r="H106" s="4">
+        <v>13</v>
+      </c>
+      <c r="J106" s="4">
+        <v>5</v>
+      </c>
+      <c r="M106" s="4">
+        <v>13</v>
+      </c>
+      <c r="O106" s="4">
+        <v>7</v>
+      </c>
+      <c r="P106" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>19</v>
+      </c>
+      <c r="R106" s="4">
+        <v>14</v>
+      </c>
+      <c r="S106" s="4">
+        <v>7</v>
+      </c>
+      <c r="U106" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="4">
+        <v>17</v>
+      </c>
+      <c r="E107" s="4">
+        <v>2</v>
+      </c>
+      <c r="F107" s="4">
+        <v>6</v>
+      </c>
+      <c r="G107" s="4">
+        <v>6</v>
+      </c>
+      <c r="H107" s="4">
+        <v>1</v>
+      </c>
+      <c r="I107" s="4">
+        <v>5</v>
+      </c>
+      <c r="K107" s="4">
+        <v>2</v>
+      </c>
+      <c r="L107" s="4">
+        <v>4</v>
+      </c>
+      <c r="M107" s="4">
+        <v>8</v>
+      </c>
+      <c r="N107" s="4">
+        <v>3</v>
+      </c>
+      <c r="R107" s="4">
+        <v>5</v>
+      </c>
+      <c r="U107" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A108" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="4">
+        <v>4</v>
+      </c>
+      <c r="F108" s="4">
+        <v>3</v>
+      </c>
+      <c r="G108" s="4">
+        <v>20</v>
+      </c>
+      <c r="H108" s="4">
+        <v>7</v>
+      </c>
+      <c r="J108" s="4">
+        <v>6</v>
+      </c>
+      <c r="K108" s="4">
+        <v>1</v>
+      </c>
+      <c r="N108" s="4">
+        <v>1</v>
+      </c>
+      <c r="O108" s="4">
+        <v>3</v>
+      </c>
+      <c r="P108" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>10</v>
+      </c>
+      <c r="S108" s="4">
+        <v>10</v>
+      </c>
+      <c r="T108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="4">
+        <v>85</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+      <c r="H109" s="4">
+        <v>18</v>
+      </c>
+      <c r="I109" s="4">
+        <v>5</v>
+      </c>
+      <c r="J109" s="4">
+        <v>10</v>
+      </c>
+      <c r="K109" s="4">
+        <v>5</v>
+      </c>
+      <c r="M109" s="4">
+        <v>13</v>
+      </c>
+      <c r="O109" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>1</v>
+      </c>
+      <c r="R109" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
+      <c r="A110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+      <c r="D110" s="3">
+        <v>2</v>
+      </c>
+      <c r="E110" s="3">
+        <v>3</v>
+      </c>
+      <c r="F110" s="3">
+        <v>4</v>
+      </c>
+      <c r="G110" s="3">
+        <v>5</v>
+      </c>
+      <c r="H110" s="3">
+        <v>6</v>
+      </c>
+      <c r="I110" s="3">
+        <v>7</v>
+      </c>
+      <c r="J110" s="3">
+        <v>8</v>
+      </c>
+      <c r="K110" s="3">
+        <v>9</v>
+      </c>
+      <c r="L110" s="3">
+        <v>10</v>
+      </c>
+      <c r="M110" s="3">
+        <v>11</v>
+      </c>
+      <c r="N110" s="3">
+        <v>12</v>
+      </c>
+      <c r="O110" s="3">
+        <v>13</v>
+      </c>
+      <c r="P110" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q110" s="3">
+        <v>15</v>
+      </c>
+      <c r="R110" s="3">
+        <v>16</v>
+      </c>
+      <c r="S110" s="3">
+        <v>17</v>
+      </c>
+      <c r="T110" s="3">
+        <v>18</v>
+      </c>
+      <c r="U110" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
+      <c r="A112" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" s="4">
+        <v>13</v>
+      </c>
+      <c r="H113" s="4">
+        <v>2</v>
+      </c>
+      <c r="J113" s="4">
+        <v>1</v>
+      </c>
+      <c r="N113" s="4">
+        <v>3</v>
+      </c>
+      <c r="P113" s="4">
+        <v>9</v>
+      </c>
+      <c r="U113" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A114" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="4">
+        <v>44</v>
+      </c>
+      <c r="G114" s="4">
+        <v>2</v>
+      </c>
+      <c r="H114" s="4">
+        <v>3</v>
+      </c>
+      <c r="I114" s="4">
+        <v>1</v>
+      </c>
+      <c r="L114" s="4">
+        <v>1</v>
+      </c>
+      <c r="M114" s="4">
+        <v>1</v>
+      </c>
+      <c r="P114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="4">
+        <v>4</v>
+      </c>
+      <c r="E115" s="4">
+        <v>17</v>
+      </c>
+      <c r="G115" s="4">
+        <v>1</v>
+      </c>
+      <c r="H115" s="4">
+        <v>1</v>
+      </c>
+      <c r="M115" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q115" s="4">
+        <v>3</v>
+      </c>
+      <c r="R115" s="4">
+        <v>2</v>
+      </c>
+      <c r="S115" s="4">
+        <v>3</v>
+      </c>
+      <c r="T115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A116" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="F116" s="4">
+        <v>9</v>
+      </c>
+      <c r="M116" s="4">
+        <v>3</v>
+      </c>
+      <c r="N116" s="4">
+        <v>1</v>
+      </c>
+      <c r="O116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A117" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="4">
+        <v>2</v>
+      </c>
+      <c r="I117" s="4">
+        <v>1</v>
+      </c>
+      <c r="K117" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="4">
+        <v>3</v>
+      </c>
+      <c r="F118" s="4">
+        <v>2</v>
+      </c>
+      <c r="K118" s="4">
+        <v>1</v>
+      </c>
+      <c r="M118" s="4">
+        <v>1</v>
+      </c>
+      <c r="N118" s="4">
+        <v>2</v>
+      </c>
+      <c r="O118" s="4">
+        <v>2</v>
+      </c>
+      <c r="S118" s="4">
+        <v>2</v>
+      </c>
+      <c r="T118" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="4">
+        <v>5</v>
+      </c>
+      <c r="F119" s="4">
+        <v>1</v>
+      </c>
+      <c r="M119" s="4">
+        <v>2</v>
+      </c>
+      <c r="U119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21">
+      <c r="A120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2</v>
+      </c>
+      <c r="E120" s="3">
+        <v>3</v>
+      </c>
+      <c r="F120" s="3">
+        <v>4</v>
+      </c>
+      <c r="G120" s="3">
+        <v>5</v>
+      </c>
+      <c r="H120" s="3">
+        <v>6</v>
+      </c>
+      <c r="I120" s="3">
+        <v>7</v>
+      </c>
+      <c r="J120" s="3">
+        <v>8</v>
+      </c>
+      <c r="K120" s="3">
+        <v>9</v>
+      </c>
+      <c r="L120" s="3">
+        <v>10</v>
+      </c>
+      <c r="M120" s="3">
+        <v>11</v>
+      </c>
+      <c r="N120" s="3">
+        <v>12</v>
+      </c>
+      <c r="O120" s="3">
+        <v>13</v>
+      </c>
+      <c r="P120" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q120" s="3">
+        <v>15</v>
+      </c>
+      <c r="R120" s="3">
+        <v>16</v>
+      </c>
+      <c r="S120" s="3">
+        <v>17</v>
+      </c>
+      <c r="T120" s="3">
+        <v>18</v>
+      </c>
+      <c r="U120" s="3">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B103:ZZ109">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFC5D9F1"/>
+        <color rgb="FF8DB4E3"/>
+        <color rgb="FF538ED5"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B113:ZZ119">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFC5D9F1"/>
+        <color rgb="FF8DB4E3"/>
+        <color rgb="FF538ED5"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B13:ZZ19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -2740,9 +5080,9 @@
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
-        <color rgb="FFF7BFF7"/>
-        <color rgb="FFF14CF1"/>
-        <color rgb="FFAA0BAA"/>
+        <color rgb="FFD9C454"/>
+        <color rgb="FFC78554"/>
+        <color rgb="FFB55353"/>
       </colorScale>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
@@ -2755,9 +5095,9 @@
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
-        <color rgb="FFC7F3CF"/>
-        <color rgb="FF00BB5E"/>
-        <color rgb="FF008844"/>
+        <color rgb="FFD9C454"/>
+        <color rgb="FFC78554"/>
+        <color rgb="FFB55353"/>
       </colorScale>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
@@ -2785,9 +5125,9 @@
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
-        <color rgb="FFD9C454"/>
-        <color rgb="FFC78554"/>
-        <color rgb="FFB55353"/>
+        <color rgb="FFF7BFF7"/>
+        <color rgb="FFF14CF1"/>
+        <color rgb="FFAA0BAA"/>
       </colorScale>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
@@ -2800,9 +5140,9 @@
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
-        <color rgb="FFF7BFF7"/>
-        <color rgb="FFF14CF1"/>
-        <color rgb="FFAA0BAA"/>
+        <color rgb="FFC7F3CF"/>
+        <color rgb="FF00BB5E"/>
+        <color rgb="FF008844"/>
       </colorScale>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
@@ -2815,9 +5155,9 @@
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
-        <color rgb="FFC5D9F1"/>
-        <color rgb="FF8DB4E3"/>
-        <color rgb="FF538ED5"/>
+        <color rgb="FFD9C454"/>
+        <color rgb="FFC78554"/>
+        <color rgb="FFB55353"/>
       </colorScale>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
@@ -2830,12 +5170,42 @@
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
-        <color rgb="FFC5D9F1"/>
-        <color rgb="FF8DB4E3"/>
-        <color rgb="FF538ED5"/>
+        <color rgb="FFD9C454"/>
+        <color rgb="FFC78554"/>
+        <color rgb="FFB55353"/>
       </colorScale>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:ZZ89">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFD9C454"/>
+        <color rgb="FFC78554"/>
+        <color rgb="FFB55353"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93:ZZ99">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF7BFF7"/>
+        <color rgb="FFF14CF1"/>
+        <color rgb="FFAA0BAA"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2852,17 +5222,584 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>61</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>49</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>71</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>133</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>149</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>140</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>77</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>70</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>127</v>
+      </c>
+      <c r="C3">
+        <v>332</v>
+      </c>
+      <c r="D3">
+        <v>228</v>
+      </c>
+      <c r="E3">
+        <v>178</v>
+      </c>
+      <c r="F3">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <v>73</v>
+      </c>
+      <c r="H3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>